--- a/Code/Results/Cases/Case_2_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.952610412301169</v>
+        <v>1.711932795781365</v>
       </c>
       <c r="C2">
-        <v>1.082023745274341</v>
+        <v>0.3813972416621709</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03538385495789687</v>
+        <v>0.1673490678546612</v>
       </c>
       <c r="F2">
-        <v>2.725580858400008</v>
+        <v>2.980879819969289</v>
       </c>
       <c r="G2">
-        <v>0.000783711911353846</v>
+        <v>0.002496035156098531</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08374895795801507</v>
+        <v>0.1091512377589368</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8507639445483477</v>
+        <v>0.5741148005297987</v>
       </c>
       <c r="N2">
-        <v>1.166248101515805</v>
+        <v>1.864864243144368</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.407054645634219</v>
+        <v>1.577858537099019</v>
       </c>
       <c r="C3">
-        <v>0.9289690478056229</v>
+        <v>0.3427137432935581</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03374689163748368</v>
+        <v>0.1674625896059725</v>
       </c>
       <c r="F3">
-        <v>2.4646756828744</v>
+        <v>2.934652647296019</v>
       </c>
       <c r="G3">
-        <v>0.0007940683077138881</v>
+        <v>0.002502206836288865</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07975087629210975</v>
+        <v>0.1086827507448263</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7393664318605104</v>
+        <v>0.5497237451810264</v>
       </c>
       <c r="N3">
-        <v>1.188556337347961</v>
+        <v>1.874376330090996</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.079349178949315</v>
+        <v>1.496583182097481</v>
       </c>
       <c r="C4">
-        <v>0.8370247766537773</v>
+        <v>0.3191586110819173</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03278395009919333</v>
+        <v>0.1675568381340966</v>
       </c>
       <c r="F4">
-        <v>2.310360625325629</v>
+        <v>2.907977110180909</v>
       </c>
       <c r="G4">
-        <v>0.0008005683192581385</v>
+        <v>0.002506191323185795</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07754102720912925</v>
+        <v>0.1084533633033047</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6722921919225584</v>
+        <v>0.5351109618494689</v>
       </c>
       <c r="N4">
-        <v>1.204491711752368</v>
+        <v>1.880851983922923</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.947372191826844</v>
+        <v>1.463722385518224</v>
       </c>
       <c r="C5">
-        <v>0.7999898720221381</v>
+        <v>0.3096079616137217</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03240059309503796</v>
+        <v>0.167601434749419</v>
       </c>
       <c r="F5">
-        <v>2.248799937652137</v>
+        <v>2.897534129360821</v>
       </c>
       <c r="G5">
-        <v>0.0008032553065346132</v>
+        <v>0.002507864262264302</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07669584272377961</v>
+        <v>0.1083744234450457</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6452483965375393</v>
+        <v>0.5292471510903312</v>
       </c>
       <c r="N5">
-        <v>1.211507439318154</v>
+        <v>1.883649715426756</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.925544908035761</v>
+        <v>1.458281447153013</v>
       </c>
       <c r="C6">
-        <v>0.7938642887472724</v>
+        <v>0.3080249634323025</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03233744281091866</v>
+        <v>0.1676092143494046</v>
       </c>
       <c r="F6">
-        <v>2.238653537386725</v>
+        <v>2.895825843274864</v>
       </c>
       <c r="G6">
-        <v>0.0008037038584078193</v>
+        <v>0.002508145030945486</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07655867279902751</v>
+        <v>0.108362190257342</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6407740858909321</v>
+        <v>0.5282789564584931</v>
       </c>
       <c r="N6">
-        <v>1.212702802012316</v>
+        <v>1.884123845298362</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.077563279197363</v>
+        <v>1.496138963692204</v>
       </c>
       <c r="C7">
-        <v>0.836523654343921</v>
+        <v>0.319029613863961</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03277874524286961</v>
+        <v>0.1675574144943441</v>
       </c>
       <c r="F7">
-        <v>2.309525230085427</v>
+        <v>2.907834544106564</v>
       </c>
       <c r="G7">
-        <v>0.000800604399037478</v>
+        <v>0.00250621368544568</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07752941244835299</v>
+        <v>0.1084522399806112</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6719263521702459</v>
+        <v>0.5350315123987457</v>
       </c>
       <c r="N7">
-        <v>1.204584266019026</v>
+        <v>1.880889073075664</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.762828010249279</v>
+        <v>1.665484475037488</v>
       </c>
       <c r="C8">
-        <v>1.028779295069853</v>
+        <v>0.3680176083916535</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03480966225018456</v>
+        <v>0.1673831256976728</v>
       </c>
       <c r="F8">
-        <v>2.634301831159704</v>
+        <v>2.964584929870838</v>
       </c>
       <c r="G8">
-        <v>0.0007872552052108802</v>
+        <v>0.002498122778328593</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08231558786798843</v>
+        <v>0.1089775411179517</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8120516783743739</v>
+        <v>0.5656291020782263</v>
       </c>
       <c r="N8">
-        <v>1.173449567955316</v>
+        <v>1.868011647734903</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.177732981477106</v>
+        <v>2.006060988782679</v>
       </c>
       <c r="C9">
-        <v>1.425917423120836</v>
+        <v>0.4657032025084504</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03921300751208001</v>
+        <v>0.1672354381376975</v>
       </c>
       <c r="F9">
-        <v>3.325748350465716</v>
+        <v>3.089526401137874</v>
       </c>
       <c r="G9">
-        <v>0.0007620603136603972</v>
+        <v>0.002483795870423927</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0939680004979806</v>
+        <v>0.1104753080719831</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.099562396143284</v>
+        <v>0.6285354141144239</v>
       </c>
       <c r="N9">
-        <v>1.13223848458901</v>
+        <v>1.847838749994565</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.282308749428068</v>
+        <v>2.26174337469763</v>
       </c>
       <c r="C10">
-        <v>1.736454049448128</v>
+        <v>0.5385509760610034</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04285705446011878</v>
+        <v>0.1672445029719478</v>
       </c>
       <c r="F10">
-        <v>3.879644998429683</v>
+        <v>3.189799469931103</v>
       </c>
       <c r="G10">
-        <v>0.0007439286876594952</v>
+        <v>0.002474196658885709</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1044369586069749</v>
+        <v>0.111868505210154</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.32210676550055</v>
+        <v>0.6765585753851013</v>
       </c>
       <c r="N10">
-        <v>1.117420330150793</v>
+        <v>1.83616982434657</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.804801589705789</v>
+        <v>2.37930988996817</v>
       </c>
       <c r="C11">
-        <v>1.883564064298639</v>
+        <v>0.5719456956335875</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04464988371861001</v>
+        <v>0.1672740249501192</v>
       </c>
       <c r="F11">
-        <v>4.144967250968904</v>
+        <v>3.237292187923458</v>
       </c>
       <c r="G11">
-        <v>0.0007357033199413964</v>
+        <v>0.002470028470857719</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1097583552902393</v>
+        <v>0.1125675884751161</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.426751988598582</v>
+        <v>0.6988058614233097</v>
       </c>
       <c r="N11">
-        <v>1.11494847435641</v>
+        <v>1.831557931449609</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.006125649030309</v>
+        <v>2.424014545545617</v>
       </c>
       <c r="C12">
-        <v>1.940290202387757</v>
+        <v>0.5846297309553847</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04535333722982848</v>
+        <v>0.1672888460756914</v>
       </c>
       <c r="F12">
-        <v>4.24769467255507</v>
+        <v>3.255549121038655</v>
       </c>
       <c r="G12">
-        <v>0.0007325859387479919</v>
+        <v>0.002468478444606871</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1118686136378528</v>
+        <v>0.1128418424340509</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.466962846341872</v>
+        <v>0.7072886023451588</v>
       </c>
       <c r="N12">
-        <v>1.114718977409751</v>
+        <v>1.82991268244335</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.962602204112557</v>
+        <v>2.414378311820542</v>
       </c>
       <c r="C13">
-        <v>1.928024720362089</v>
+        <v>0.5818962766784921</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04520064864839934</v>
+        <v>0.1672854922656395</v>
       </c>
       <c r="F13">
-        <v>4.225464218112876</v>
+        <v>3.251605006573186</v>
       </c>
       <c r="G13">
-        <v>0.0007332575435851704</v>
+        <v>0.002468811011252736</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1114096344389353</v>
+        <v>0.1127823510831405</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.45827508539773</v>
+        <v>0.7054590972697241</v>
       </c>
       <c r="N13">
-        <v>1.11473532782324</v>
+        <v>1.83026249977128</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.821291407580702</v>
+        <v>2.382984041183875</v>
       </c>
       <c r="C14">
-        <v>1.888209405244766</v>
+        <v>0.5729884456672494</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04470723135165677</v>
+        <v>0.1672751713612932</v>
       </c>
       <c r="F14">
-        <v>4.153371369995369</v>
+        <v>3.23878872204719</v>
       </c>
       <c r="G14">
-        <v>0.000735446940882574</v>
+        <v>0.002469900381406911</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1099299658960504</v>
+        <v>0.1125899598124462</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.430047863724369</v>
+        <v>0.6995025729410571</v>
       </c>
       <c r="N14">
-        <v>1.11491484418319</v>
+        <v>1.831420542130601</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.735205249336047</v>
+        <v>2.363778333911796</v>
       </c>
       <c r="C15">
-        <v>1.863959879797051</v>
+        <v>0.567537155541288</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04440836964031281</v>
+        <v>0.1672693234899167</v>
       </c>
       <c r="F15">
-        <v>4.109517075852381</v>
+        <v>3.230973934111688</v>
       </c>
       <c r="G15">
-        <v>0.0007367874775669813</v>
+        <v>0.002470571342489852</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1090365040674328</v>
+        <v>0.1124733592451435</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.412836973214553</v>
+        <v>0.6958616202701791</v>
       </c>
       <c r="N15">
-        <v>1.115119843133641</v>
+        <v>1.832143083529218</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.248613480277299</v>
+        <v>2.254085748346313</v>
       </c>
       <c r="C16">
-        <v>1.726972221044321</v>
+        <v>0.5363738195024439</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04274301725024809</v>
+        <v>0.167243083798847</v>
       </c>
       <c r="F16">
-        <v>3.862601710132395</v>
+        <v>3.186733704827617</v>
       </c>
       <c r="G16">
-        <v>0.000744466212127648</v>
+        <v>0.00247447303996035</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1041016444398082</v>
+        <v>0.1118241441574952</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.315344226461093</v>
+        <v>0.6751127780164126</v>
       </c>
       <c r="N16">
-        <v>1.117675337433582</v>
+        <v>1.83648532342616</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.955620315881106</v>
+        <v>2.187117416715012</v>
       </c>
       <c r="C17">
-        <v>1.644549200510141</v>
+        <v>0.5173226396659061</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04175925015764825</v>
+        <v>0.1672334838918639</v>
       </c>
       <c r="F17">
-        <v>3.714769161761041</v>
+        <v>3.16007646260627</v>
       </c>
       <c r="G17">
-        <v>0.0007491788163985421</v>
+        <v>0.002476917332305196</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1012271447805873</v>
+        <v>0.1114426945216636</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.256470796747934</v>
+        <v>0.6624871490405297</v>
       </c>
       <c r="N17">
-        <v>1.120397528306555</v>
+        <v>1.839328236183263</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.788941780788377</v>
+        <v>2.148716900178101</v>
       </c>
       <c r="C18">
-        <v>1.597679534432018</v>
+        <v>0.5063889074551753</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04120576224588657</v>
+        <v>0.1672303534392245</v>
       </c>
       <c r="F18">
-        <v>3.63097354453015</v>
+        <v>3.144920540439216</v>
       </c>
       <c r="G18">
-        <v>0.0007518919329972449</v>
+        <v>0.002478341922849579</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09962540006438303</v>
+        <v>0.1112294339624071</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.222922777502575</v>
+        <v>0.6552629653585598</v>
       </c>
       <c r="N18">
-        <v>1.122358686564198</v>
+        <v>1.841028886131454</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.732807536147504</v>
+        <v>2.135735265699338</v>
       </c>
       <c r="C19">
-        <v>1.581897713948933</v>
+        <v>0.5026910143902228</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0410203455275866</v>
+        <v>0.1672297045455657</v>
       </c>
       <c r="F19">
-        <v>3.602804319839436</v>
+        <v>3.139819267067224</v>
       </c>
       <c r="G19">
-        <v>0.0007528111496530057</v>
+        <v>0.002478827481291205</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09909152984083391</v>
+        <v>0.1111582779449733</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.211615376512768</v>
+        <v>0.6528234494494569</v>
       </c>
       <c r="N19">
-        <v>1.123088044668393</v>
+        <v>1.8416159120858</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.986615204406746</v>
+        <v>2.194234077547492</v>
       </c>
       <c r="C20">
-        <v>1.653266410852098</v>
+        <v>0.5193481761852468</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04186266266629701</v>
+        <v>0.1672342584220416</v>
       </c>
       <c r="F20">
-        <v>3.730376239700433</v>
+        <v>3.162895874842803</v>
       </c>
       <c r="G20">
-        <v>0.0007486769271761163</v>
+        <v>0.00247665519945803</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.101527702061226</v>
+        <v>0.1114826641364957</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.262704800359245</v>
+        <v>0.6638272590731304</v>
       </c>
       <c r="N20">
-        <v>1.120066200329134</v>
+        <v>1.839018818679619</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.862698502370449</v>
+        <v>2.392200250592339</v>
       </c>
       <c r="C21">
-        <v>1.899874899894314</v>
+        <v>0.575603844239879</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04485144652060935</v>
+        <v>0.1672781041011842</v>
       </c>
       <c r="F21">
-        <v>4.174482617400571</v>
+        <v>3.242545761178235</v>
       </c>
       <c r="G21">
-        <v>0.0007348039847467957</v>
+        <v>0.002469579638340293</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1103618663279633</v>
+        <v>0.1126462101664885</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.438322209354055</v>
+        <v>0.7012505658196346</v>
       </c>
       <c r="N21">
-        <v>1.114842120604706</v>
+        <v>1.831077642810769</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.455832511026983</v>
+        <v>2.522661593706914</v>
       </c>
       <c r="C22">
-        <v>2.06709322157468</v>
+        <v>0.6125933759990403</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04695125936077904</v>
+        <v>0.1673279829847552</v>
       </c>
       <c r="F22">
-        <v>4.478077773571869</v>
+        <v>3.296190894886848</v>
       </c>
       <c r="G22">
-        <v>0.0007257184690873573</v>
+        <v>0.002465120667346618</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1166991467066509</v>
+        <v>0.1134622454581162</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.556557567588257</v>
+        <v>0.7260481858405967</v>
       </c>
       <c r="N22">
-        <v>1.115601700724923</v>
+        <v>1.82647784163359</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.137161427432261</v>
+        <v>2.452931761986576</v>
       </c>
       <c r="C23">
-        <v>1.977224885098337</v>
+        <v>0.5928304806996039</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04581509961004127</v>
+        <v>0.1672994228935245</v>
       </c>
       <c r="F23">
-        <v>4.314696101926586</v>
+        <v>3.267413242473538</v>
       </c>
       <c r="G23">
-        <v>0.0007305715195762926</v>
+        <v>0.002467485434936286</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1132596135930442</v>
+        <v>0.1130215804175947</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.493101413715124</v>
+        <v>0.7127820221915044</v>
       </c>
       <c r="N23">
-        <v>1.11477931158386</v>
+        <v>1.828878490162666</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.972596954144308</v>
+        <v>2.191016322565872</v>
       </c>
       <c r="C24">
-        <v>1.649323764510655</v>
+        <v>0.518432371908375</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04181587257015362</v>
+        <v>0.1672339008159671</v>
       </c>
       <c r="F24">
-        <v>3.723316581339702</v>
+        <v>3.161620690232809</v>
       </c>
       <c r="G24">
-        <v>0.0007489038190713947</v>
+        <v>0.002476773649556042</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1013916628279503</v>
+        <v>0.1114645750708334</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.259885482574177</v>
+        <v>0.6632212880316501</v>
       </c>
       <c r="N24">
-        <v>1.120214766641112</v>
+        <v>1.839158500146297</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.785297954973942</v>
+        <v>1.91298790455528</v>
       </c>
       <c r="C25">
-        <v>1.315713627418518</v>
+        <v>0.4390939395852342</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03796302005157326</v>
+        <v>0.1672546947626694</v>
       </c>
       <c r="F25">
-        <v>3.131651740637778</v>
+        <v>3.054248825123835</v>
       </c>
       <c r="G25">
-        <v>0.0007687918760779526</v>
+        <v>0.002487508088267019</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0905235777935971</v>
+        <v>0.1100192691878945</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.020082767364087</v>
+        <v>0.6112030510931419</v>
       </c>
       <c r="N25">
-        <v>1.140945093239367</v>
+        <v>1.852746560176257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.711932795781365</v>
+        <v>3.952610412301169</v>
       </c>
       <c r="C2">
-        <v>0.3813972416621709</v>
+        <v>1.082023745274171</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1673490678546612</v>
+        <v>0.03538385495789864</v>
       </c>
       <c r="F2">
-        <v>2.980879819969289</v>
+        <v>2.725580858400036</v>
       </c>
       <c r="G2">
-        <v>0.002496035156098531</v>
+        <v>0.0007837119114140263</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1091512377589368</v>
+        <v>0.08374895795807902</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5741148005297987</v>
+        <v>0.8507639445483619</v>
       </c>
       <c r="N2">
-        <v>1.864864243144368</v>
+        <v>1.166248101515805</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.577858537099019</v>
+        <v>3.407054645634105</v>
       </c>
       <c r="C3">
-        <v>0.3427137432935581</v>
+        <v>0.928969047805964</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1674625896059725</v>
+        <v>0.03374689163743128</v>
       </c>
       <c r="F3">
-        <v>2.934652647296019</v>
+        <v>2.4646756828744</v>
       </c>
       <c r="G3">
-        <v>0.002502206836288865</v>
+        <v>0.0007940683076559386</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1086827507448263</v>
+        <v>0.07975087629216659</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5497237451810264</v>
+        <v>0.7393664318605104</v>
       </c>
       <c r="N3">
-        <v>1.874376330090996</v>
+        <v>1.188556337347947</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.496583182097481</v>
+        <v>3.079349178949315</v>
       </c>
       <c r="C4">
-        <v>0.3191586110819173</v>
+        <v>0.8370247766538341</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1675568381340966</v>
+        <v>0.03278395009919599</v>
       </c>
       <c r="F4">
-        <v>2.907977110180909</v>
+        <v>2.310360625325629</v>
       </c>
       <c r="G4">
-        <v>0.002506191323185795</v>
+        <v>0.0008005683192592487</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1084533633033047</v>
+        <v>0.07754102720906886</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5351109618494689</v>
+        <v>0.6722921919225584</v>
       </c>
       <c r="N4">
-        <v>1.880851983922923</v>
+        <v>1.204491711752382</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.463722385518224</v>
+        <v>2.94737219182673</v>
       </c>
       <c r="C5">
-        <v>0.3096079616137217</v>
+        <v>0.7999898720224223</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.167601434749419</v>
+        <v>0.03240059309506993</v>
       </c>
       <c r="F5">
-        <v>2.897534129360821</v>
+        <v>2.248799937652123</v>
       </c>
       <c r="G5">
-        <v>0.002507864262264302</v>
+        <v>0.0008032553064241709</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1083744234450457</v>
+        <v>0.0766958427237725</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5292471510903312</v>
+        <v>0.6452483965375535</v>
       </c>
       <c r="N5">
-        <v>1.883649715426756</v>
+        <v>1.211507439318098</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.458281447153013</v>
+        <v>2.925544908035704</v>
       </c>
       <c r="C6">
-        <v>0.3080249634323025</v>
+        <v>0.7938642887472156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1676092143494046</v>
+        <v>0.03233744281090445</v>
       </c>
       <c r="F6">
-        <v>2.895825843274864</v>
+        <v>2.23865353738671</v>
       </c>
       <c r="G6">
-        <v>0.002508145030945486</v>
+        <v>0.0008037038584061673</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.108362190257342</v>
+        <v>0.07655867279907724</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5282789564584931</v>
+        <v>0.640774085890925</v>
       </c>
       <c r="N6">
-        <v>1.884123845298362</v>
+        <v>1.212702802012302</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.496138963692204</v>
+        <v>3.077563279197307</v>
       </c>
       <c r="C7">
-        <v>0.319029613863961</v>
+        <v>0.8365236543438641</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1675574144943441</v>
+        <v>0.03277874524285718</v>
       </c>
       <c r="F7">
-        <v>2.907834544106564</v>
+        <v>2.309525230085384</v>
       </c>
       <c r="G7">
-        <v>0.00250621368544568</v>
+        <v>0.0008006043990331561</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1084522399806112</v>
+        <v>0.07752941244829969</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5350315123987457</v>
+        <v>0.6719263521702459</v>
       </c>
       <c r="N7">
-        <v>1.880889073075664</v>
+        <v>1.204584266019083</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.665484475037488</v>
+        <v>3.762828010249279</v>
       </c>
       <c r="C8">
-        <v>0.3680176083916535</v>
+        <v>1.028779295070478</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1673831256976728</v>
+        <v>0.03480966225018367</v>
       </c>
       <c r="F8">
-        <v>2.964584929870838</v>
+        <v>2.634301831159704</v>
       </c>
       <c r="G8">
-        <v>0.002498122778328593</v>
+        <v>0.0007872552051535419</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1089775411179517</v>
+        <v>0.08231558786788895</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5656291020782263</v>
+        <v>0.8120516783743881</v>
       </c>
       <c r="N8">
-        <v>1.868011647734903</v>
+        <v>1.173449567955331</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.006060988782679</v>
+        <v>5.177732981477106</v>
       </c>
       <c r="C9">
-        <v>0.4657032025084504</v>
+        <v>1.425917423120438</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1672354381376975</v>
+        <v>0.0392130075120436</v>
       </c>
       <c r="F9">
-        <v>3.089526401137874</v>
+        <v>3.325748350465716</v>
       </c>
       <c r="G9">
-        <v>0.002483795870423927</v>
+        <v>0.0007620603136799797</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1104753080719831</v>
+        <v>0.09396800049792375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6285354141144239</v>
+        <v>1.09956239614327</v>
       </c>
       <c r="N9">
-        <v>1.847838749994565</v>
+        <v>1.132238484588981</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.26174337469763</v>
+        <v>6.282308749428068</v>
       </c>
       <c r="C10">
-        <v>0.5385509760610034</v>
+        <v>1.736454049448355</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1672445029719478</v>
+        <v>0.0428570544600797</v>
       </c>
       <c r="F10">
-        <v>3.189799469931103</v>
+        <v>3.879644998429711</v>
       </c>
       <c r="G10">
-        <v>0.002474196658885709</v>
+        <v>0.0007439286875497942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.111868505210154</v>
+        <v>0.104436958607053</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6765585753851013</v>
+        <v>1.32210676550055</v>
       </c>
       <c r="N10">
-        <v>1.83616982434657</v>
+        <v>1.117420330150821</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.37930988996817</v>
+        <v>6.804801589705733</v>
       </c>
       <c r="C11">
-        <v>0.5719456956335875</v>
+        <v>1.883564064298355</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1672740249501192</v>
+        <v>0.04464988371860557</v>
       </c>
       <c r="F11">
-        <v>3.237292187923458</v>
+        <v>4.144967250968932</v>
       </c>
       <c r="G11">
-        <v>0.002470028470857719</v>
+        <v>0.0007357033199963485</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1125675884751161</v>
+        <v>0.1097583552903103</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6988058614233097</v>
+        <v>1.42675198859861</v>
       </c>
       <c r="N11">
-        <v>1.831557931449609</v>
+        <v>1.11494847435641</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.424014545545617</v>
+        <v>7.006125649030423</v>
       </c>
       <c r="C12">
-        <v>0.5846297309553847</v>
+        <v>1.940290202387189</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1672888460756914</v>
+        <v>0.04535333722985424</v>
       </c>
       <c r="F12">
-        <v>3.255549121038655</v>
+        <v>4.247694672555099</v>
       </c>
       <c r="G12">
-        <v>0.002468478444606871</v>
+        <v>0.0007325859388000785</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1128418424340509</v>
+        <v>0.1118686136380447</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7072886023451588</v>
+        <v>1.466962846341914</v>
       </c>
       <c r="N12">
-        <v>1.82991268244335</v>
+        <v>1.114718977409751</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.414378311820542</v>
+        <v>6.962602204112727</v>
       </c>
       <c r="C13">
-        <v>0.5818962766784921</v>
+        <v>1.928024720362259</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1672854922656395</v>
+        <v>0.04520064864831852</v>
       </c>
       <c r="F13">
-        <v>3.251605006573186</v>
+        <v>4.225464218112876</v>
       </c>
       <c r="G13">
-        <v>0.002468811011252736</v>
+        <v>0.000733257543712007</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1127823510831405</v>
+        <v>0.1114096344389139</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7054590972697241</v>
+        <v>1.458275085397744</v>
       </c>
       <c r="N13">
-        <v>1.83026249977128</v>
+        <v>1.114735327823297</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.382984041183875</v>
+        <v>6.821291407580532</v>
       </c>
       <c r="C14">
-        <v>0.5729884456672494</v>
+        <v>1.88820940524505</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1672751713612932</v>
+        <v>0.04470723135164789</v>
       </c>
       <c r="F14">
-        <v>3.23878872204719</v>
+        <v>4.153371369995369</v>
       </c>
       <c r="G14">
-        <v>0.002469900381406911</v>
+        <v>0.0007354469409542143</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1125899598124462</v>
+        <v>0.1099299658960433</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6995025729410571</v>
+        <v>1.430047863724397</v>
       </c>
       <c r="N14">
-        <v>1.831420542130601</v>
+        <v>1.11491484418319</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.363778333911796</v>
+        <v>6.735205249336047</v>
       </c>
       <c r="C15">
-        <v>0.567537155541288</v>
+        <v>1.863959879797051</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1672693234899167</v>
+        <v>0.04440836964029948</v>
       </c>
       <c r="F15">
-        <v>3.230973934111688</v>
+        <v>4.109517075852381</v>
       </c>
       <c r="G15">
-        <v>0.002470571342489852</v>
+        <v>0.0007367874775659134</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1124733592451435</v>
+        <v>0.1090365040673476</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6958616202701791</v>
+        <v>1.412836973214539</v>
       </c>
       <c r="N15">
-        <v>1.832143083529218</v>
+        <v>1.115119843133684</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.254085748346313</v>
+        <v>6.24861348027747</v>
       </c>
       <c r="C16">
-        <v>0.5363738195024439</v>
+        <v>1.726972221044775</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.167243083798847</v>
+        <v>0.04274301725024987</v>
       </c>
       <c r="F16">
-        <v>3.186733704827617</v>
+        <v>3.862601710132395</v>
       </c>
       <c r="G16">
-        <v>0.00247447303996035</v>
+        <v>0.0007444662122000345</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1118241441574952</v>
+        <v>0.1041016444398224</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6751127780164126</v>
+        <v>1.315344226461079</v>
       </c>
       <c r="N16">
-        <v>1.83648532342616</v>
+        <v>1.117675337433639</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.187117416715012</v>
+        <v>5.955620315880935</v>
       </c>
       <c r="C17">
-        <v>0.5173226396659061</v>
+        <v>1.644549200509857</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1672334838918639</v>
+        <v>0.04175925015765802</v>
       </c>
       <c r="F17">
-        <v>3.16007646260627</v>
+        <v>3.714769161761012</v>
       </c>
       <c r="G17">
-        <v>0.002476917332305196</v>
+        <v>0.0007491788163975014</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1114426945216636</v>
+        <v>0.101227144780708</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6624871490405297</v>
+        <v>1.256470796747934</v>
       </c>
       <c r="N17">
-        <v>1.839328236183263</v>
+        <v>1.120397528306555</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.148716900178101</v>
+        <v>5.788941780788377</v>
       </c>
       <c r="C18">
-        <v>0.5063889074551753</v>
+        <v>1.597679534431506</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1672303534392245</v>
+        <v>0.04120576224585371</v>
       </c>
       <c r="F18">
-        <v>3.144920540439216</v>
+        <v>3.630973544530178</v>
       </c>
       <c r="G18">
-        <v>0.002478341922849579</v>
+        <v>0.0007518919329977944</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1112294339624071</v>
+        <v>0.09962540006418408</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6552629653585598</v>
+        <v>1.222922777502561</v>
       </c>
       <c r="N18">
-        <v>1.841028886131454</v>
+        <v>1.122358686564255</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.135735265699338</v>
+        <v>5.732807536147732</v>
       </c>
       <c r="C19">
-        <v>0.5026910143902228</v>
+        <v>1.581897713949502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1672297045455657</v>
+        <v>0.04102034552758749</v>
       </c>
       <c r="F19">
-        <v>3.139819267067224</v>
+        <v>3.602804319839436</v>
       </c>
       <c r="G19">
-        <v>0.002478827481291205</v>
+        <v>0.0007528111496512053</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1111582779449733</v>
+        <v>0.09909152984084102</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6528234494494569</v>
+        <v>1.211615376512768</v>
       </c>
       <c r="N19">
-        <v>1.8416159120858</v>
+        <v>1.123088044668336</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.194234077547492</v>
+        <v>5.986615204406803</v>
       </c>
       <c r="C20">
-        <v>0.5193481761852468</v>
+        <v>1.653266410852382</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1672342584220416</v>
+        <v>0.04186266266632188</v>
       </c>
       <c r="F20">
-        <v>3.162895874842803</v>
+        <v>3.730376239700405</v>
       </c>
       <c r="G20">
-        <v>0.00247665519945803</v>
+        <v>0.0007486769271187199</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1114826641364957</v>
+        <v>0.1015277020611407</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6638272590731304</v>
+        <v>1.262704800359259</v>
       </c>
       <c r="N20">
-        <v>1.839018818679619</v>
+        <v>1.120066200329177</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.392200250592339</v>
+        <v>6.862698502370563</v>
       </c>
       <c r="C21">
-        <v>0.575603844239879</v>
+        <v>1.899874899894314</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1672781041011842</v>
+        <v>0.04485144652064488</v>
       </c>
       <c r="F21">
-        <v>3.242545761178235</v>
+        <v>4.174482617400599</v>
       </c>
       <c r="G21">
-        <v>0.002469579638340293</v>
+        <v>0.0007348039847454579</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1126462101664885</v>
+        <v>0.1103618663280344</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7012505658196346</v>
+        <v>1.438322209354027</v>
       </c>
       <c r="N21">
-        <v>1.831077642810769</v>
+        <v>1.114842120604763</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.522661593706914</v>
+        <v>7.45583251102704</v>
       </c>
       <c r="C22">
-        <v>0.6125933759990403</v>
+        <v>2.067093221574567</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1673279829847552</v>
+        <v>0.04695125936081812</v>
       </c>
       <c r="F22">
-        <v>3.296190894886848</v>
+        <v>4.478077773571869</v>
       </c>
       <c r="G22">
-        <v>0.002465120667346618</v>
+        <v>0.0007257184690858591</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1134622454581162</v>
+        <v>0.1166991467067646</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7260481858405967</v>
+        <v>1.556557567588271</v>
       </c>
       <c r="N22">
-        <v>1.82647784163359</v>
+        <v>1.115601700724937</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.452931761986576</v>
+        <v>7.137161427432147</v>
       </c>
       <c r="C23">
-        <v>0.5928304806996039</v>
+        <v>1.977224885098281</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1672994228935245</v>
+        <v>0.04581509961007413</v>
       </c>
       <c r="F23">
-        <v>3.267413242473538</v>
+        <v>4.314696101926558</v>
       </c>
       <c r="G23">
-        <v>0.002467485434936286</v>
+        <v>0.0007305715195794655</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1130215804175947</v>
+        <v>0.1132596135929802</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7127820221915044</v>
+        <v>1.493101413715124</v>
       </c>
       <c r="N23">
-        <v>1.828878490162666</v>
+        <v>1.114779311583902</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.191016322565872</v>
+        <v>5.972596954144421</v>
       </c>
       <c r="C24">
-        <v>0.518432371908375</v>
+        <v>1.649323764510711</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1672339008159671</v>
+        <v>0.04181587257008434</v>
       </c>
       <c r="F24">
-        <v>3.161620690232809</v>
+        <v>3.723316581339702</v>
       </c>
       <c r="G24">
-        <v>0.002476773649556042</v>
+        <v>0.0007489038190687323</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1114645750708334</v>
+        <v>0.1013916628278722</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6632212880316501</v>
+        <v>1.259885482574177</v>
       </c>
       <c r="N24">
-        <v>1.839158500146297</v>
+        <v>1.120214766641169</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.91298790455528</v>
+        <v>4.785297954973998</v>
       </c>
       <c r="C25">
-        <v>0.4390939395852342</v>
+        <v>1.315713627418461</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1672546947626694</v>
+        <v>0.03796302005153684</v>
       </c>
       <c r="F25">
-        <v>3.054248825123835</v>
+        <v>3.13165174063775</v>
       </c>
       <c r="G25">
-        <v>0.002487508088267019</v>
+        <v>0.0007687918760215889</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1100192691878945</v>
+        <v>0.0905235777936042</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6112030510931419</v>
+        <v>1.02008276736408</v>
       </c>
       <c r="N25">
-        <v>1.852746560176257</v>
+        <v>1.140945093239367</v>
       </c>
       <c r="O25">
         <v>0</v>
